--- a/old_database/crypto/bioSample/bioSample_2574.xlsx
+++ b/old_database/crypto/bioSample/bioSample_2574.xlsx
@@ -58,7 +58,7 @@
     <t>10.27.17</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_2574</t>
   </si>
   <si>
     <t>CNAG_00000</t>
